--- a/public/files/daily/daily-export.xlsx
+++ b/public/files/daily/daily-export.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>Planilla #</t>
+  </si>
+  <si>
+    <t>Registro #</t>
   </si>
   <si>
     <t>Fecha de reporte</t>
@@ -29,6 +32,12 @@
     <t>Área</t>
   </si>
   <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Destino</t>
+  </si>
+  <si>
     <t>Cliente</t>
   </si>
   <si>
@@ -95,41 +104,52 @@
     <t>Cantidad de personas</t>
   </si>
   <si>
-    <t>2021-02-12</t>
-  </si>
-  <si>
     <t>Acarreo</t>
   </si>
   <si>
     <t>transporte de pasaje</t>
   </si>
   <si>
-    <t>demo</t>
-  </si>
-  <si>
-    <t>Cundinamarca-Anolaima</t>
-  </si>
-  <si>
-    <t>ejemplo@demo.com</t>
-  </si>
-  <si>
-    <t>carrera 11 # 34-34</t>
-  </si>
-  <si>
-    <t>VMX324</t>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>TOP DRILLING COMPANY SUCURSAL COLOMBIA</t>
+  </si>
+  <si>
+    <t>factura@topdco.com</t>
+  </si>
+  <si>
+    <t>795 7495</t>
+  </si>
+  <si>
+    <t>CR 7D 108A 53</t>
+  </si>
+  <si>
+    <t>BUSETA</t>
+  </si>
+  <si>
+    <t>TDY225</t>
   </si>
   <si>
     <t>john carlos Espitia Rivera</t>
   </si>
   <si>
     <t>jcespitia1@gmail.com</t>
+  </si>
+  <si>
+    <t>Tocancipa</t>
+  </si>
+  <si>
+    <t>Cota</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <b val="0"/>
@@ -158,8 +178,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -461,15 +484,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,82 +571,3129 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+      <c r="B2">
+        <v>105</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43831.208333333</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>10000111</v>
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2">
-        <v>3002312</v>
-      </c>
-      <c r="J2" t="s">
         <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>900720625</v>
       </c>
       <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="L2">
-        <v>1991</v>
+      <c r="L2" t="s">
+        <v>34</v>
       </c>
       <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2">
+        <v>2019</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2">
+        <v>10010101</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2">
+        <v>10.0</v>
+      </c>
+      <c r="U2">
+        <v>12.0</v>
+      </c>
+      <c r="V2">
+        <v>1.0</v>
+      </c>
+      <c r="W2">
+        <v>1.0</v>
+      </c>
+      <c r="X2">
+        <v>7.0</v>
+      </c>
+      <c r="Y2">
+        <v>10.0</v>
+      </c>
+      <c r="Z2">
+        <v>11.0</v>
+      </c>
+      <c r="AA2">
+        <v>7600</v>
+      </c>
+      <c r="AB2">
+        <v>4500</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>900720625</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
         <v>34</v>
       </c>
-      <c r="N2">
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3">
+        <v>2019</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3">
         <v>10010101</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3">
+        <v>10.0</v>
+      </c>
+      <c r="U3">
+        <v>12.0</v>
+      </c>
+      <c r="V3">
+        <v>1.0</v>
+      </c>
+      <c r="W3">
+        <v>1.0</v>
+      </c>
+      <c r="X3">
+        <v>7.0</v>
+      </c>
+      <c r="Y3">
+        <v>10.0</v>
+      </c>
+      <c r="Z3">
+        <v>11.0</v>
+      </c>
+      <c r="AA3">
+        <v>7400</v>
+      </c>
+      <c r="AB3">
+        <v>4400</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>900720625</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="P2">
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4">
+        <v>2019</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4">
+        <v>10010101</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4">
+        <v>10.0</v>
+      </c>
+      <c r="U4">
+        <v>12.0</v>
+      </c>
+      <c r="V4">
+        <v>1.0</v>
+      </c>
+      <c r="W4">
+        <v>1.0</v>
+      </c>
+      <c r="X4">
         <v>7.0</v>
       </c>
-      <c r="Q2">
+      <c r="Y4">
+        <v>10.0</v>
+      </c>
+      <c r="Z4">
+        <v>11.0</v>
+      </c>
+      <c r="AA4">
+        <v>7200</v>
+      </c>
+      <c r="AB4">
+        <v>4300</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>900720625</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5">
+        <v>2019</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5">
+        <v>10010101</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5">
+        <v>10.0</v>
+      </c>
+      <c r="U5">
         <v>12.0</v>
       </c>
-      <c r="R2">
-        <v>1.0</v>
-      </c>
-      <c r="S2">
-        <v>1.0</v>
-      </c>
-      <c r="T2">
+      <c r="V5">
+        <v>1.0</v>
+      </c>
+      <c r="W5">
+        <v>1.0</v>
+      </c>
+      <c r="X5">
+        <v>7.0</v>
+      </c>
+      <c r="Y5">
+        <v>10.0</v>
+      </c>
+      <c r="Z5">
+        <v>11.0</v>
+      </c>
+      <c r="AA5">
+        <v>7000</v>
+      </c>
+      <c r="AB5">
+        <v>4200</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>900720625</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6">
+        <v>2019</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6">
+        <v>10010101</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6">
+        <v>10.0</v>
+      </c>
+      <c r="U6">
+        <v>12.0</v>
+      </c>
+      <c r="V6">
+        <v>1.0</v>
+      </c>
+      <c r="W6">
+        <v>1.0</v>
+      </c>
+      <c r="X6">
+        <v>7.0</v>
+      </c>
+      <c r="Y6">
+        <v>10.0</v>
+      </c>
+      <c r="Z6">
+        <v>11.0</v>
+      </c>
+      <c r="AA6">
+        <v>6800</v>
+      </c>
+      <c r="AB6">
+        <v>4100</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>900720625</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7">
+        <v>2019</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7">
+        <v>10010101</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7">
+        <v>10.0</v>
+      </c>
+      <c r="U7">
+        <v>12.0</v>
+      </c>
+      <c r="V7">
+        <v>1.0</v>
+      </c>
+      <c r="W7">
+        <v>1.0</v>
+      </c>
+      <c r="X7">
+        <v>7.0</v>
+      </c>
+      <c r="Y7">
+        <v>10.0</v>
+      </c>
+      <c r="Z7">
+        <v>11.0</v>
+      </c>
+      <c r="AA7">
+        <v>6600</v>
+      </c>
+      <c r="AB7">
+        <v>4000</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>900720625</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8">
+        <v>2019</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8">
+        <v>10010101</v>
+      </c>
+      <c r="S8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8">
+        <v>10.0</v>
+      </c>
+      <c r="U8">
+        <v>12.0</v>
+      </c>
+      <c r="V8">
+        <v>1.0</v>
+      </c>
+      <c r="W8">
+        <v>1.0</v>
+      </c>
+      <c r="X8">
+        <v>7.0</v>
+      </c>
+      <c r="Y8">
+        <v>10.0</v>
+      </c>
+      <c r="Z8">
+        <v>11.0</v>
+      </c>
+      <c r="AA8">
+        <v>6400</v>
+      </c>
+      <c r="AB8">
+        <v>3900</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>900720625</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9">
+        <v>2019</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9">
+        <v>10010101</v>
+      </c>
+      <c r="S9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9">
+        <v>10.0</v>
+      </c>
+      <c r="U9">
+        <v>12.0</v>
+      </c>
+      <c r="V9">
+        <v>1.0</v>
+      </c>
+      <c r="W9">
+        <v>1.0</v>
+      </c>
+      <c r="X9">
+        <v>7.0</v>
+      </c>
+      <c r="Y9">
+        <v>10.0</v>
+      </c>
+      <c r="Z9">
+        <v>11.0</v>
+      </c>
+      <c r="AA9">
+        <v>6200</v>
+      </c>
+      <c r="AB9">
+        <v>3800</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>97</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <v>900720625</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10">
+        <v>2019</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10">
+        <v>10010101</v>
+      </c>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10">
+        <v>10.0</v>
+      </c>
+      <c r="U10">
+        <v>12.0</v>
+      </c>
+      <c r="V10">
+        <v>1.0</v>
+      </c>
+      <c r="W10">
+        <v>1.0</v>
+      </c>
+      <c r="X10">
+        <v>7.0</v>
+      </c>
+      <c r="Y10">
+        <v>10.0</v>
+      </c>
+      <c r="Z10">
+        <v>11.0</v>
+      </c>
+      <c r="AA10">
+        <v>6000</v>
+      </c>
+      <c r="AB10">
+        <v>3700</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>96</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11">
+        <v>900720625</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11">
+        <v>2019</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11">
+        <v>10010101</v>
+      </c>
+      <c r="S11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11">
+        <v>10.0</v>
+      </c>
+      <c r="U11">
+        <v>12.0</v>
+      </c>
+      <c r="V11">
+        <v>1.0</v>
+      </c>
+      <c r="W11">
+        <v>1.0</v>
+      </c>
+      <c r="X11">
+        <v>7.0</v>
+      </c>
+      <c r="Y11">
+        <v>10.0</v>
+      </c>
+      <c r="Z11">
+        <v>11.0</v>
+      </c>
+      <c r="AA11">
+        <v>5800</v>
+      </c>
+      <c r="AB11">
+        <v>3600</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <v>900720625</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12">
+        <v>2019</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12">
+        <v>10010101</v>
+      </c>
+      <c r="S12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12">
+        <v>10.0</v>
+      </c>
+      <c r="U12">
+        <v>12.0</v>
+      </c>
+      <c r="V12">
+        <v>1.0</v>
+      </c>
+      <c r="W12">
+        <v>1.0</v>
+      </c>
+      <c r="X12">
+        <v>7.0</v>
+      </c>
+      <c r="Y12">
+        <v>10.0</v>
+      </c>
+      <c r="Z12">
+        <v>11.0</v>
+      </c>
+      <c r="AA12">
+        <v>5600</v>
+      </c>
+      <c r="AB12">
+        <v>3500</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13">
+        <v>900720625</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13">
+        <v>2019</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13">
+        <v>10010101</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13">
+        <v>10.0</v>
+      </c>
+      <c r="U13">
+        <v>12.0</v>
+      </c>
+      <c r="V13">
+        <v>1.0</v>
+      </c>
+      <c r="W13">
+        <v>1.0</v>
+      </c>
+      <c r="X13">
+        <v>7.0</v>
+      </c>
+      <c r="Y13">
+        <v>10.0</v>
+      </c>
+      <c r="Z13">
+        <v>11.0</v>
+      </c>
+      <c r="AA13">
+        <v>5400</v>
+      </c>
+      <c r="AB13">
+        <v>3400</v>
+      </c>
+      <c r="AC13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14">
+        <v>900720625</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14">
+        <v>2019</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14">
+        <v>10010101</v>
+      </c>
+      <c r="S14" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14">
+        <v>10.0</v>
+      </c>
+      <c r="U14">
+        <v>12.0</v>
+      </c>
+      <c r="V14">
+        <v>1.0</v>
+      </c>
+      <c r="W14">
+        <v>1.0</v>
+      </c>
+      <c r="X14">
+        <v>7.0</v>
+      </c>
+      <c r="Y14">
+        <v>10.0</v>
+      </c>
+      <c r="Z14">
+        <v>11.0</v>
+      </c>
+      <c r="AA14">
+        <v>5200</v>
+      </c>
+      <c r="AB14">
+        <v>3300</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15">
+        <v>900720625</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15">
+        <v>2019</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15">
+        <v>10010101</v>
+      </c>
+      <c r="S15" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15">
+        <v>10.0</v>
+      </c>
+      <c r="U15">
+        <v>12.0</v>
+      </c>
+      <c r="V15">
+        <v>1.0</v>
+      </c>
+      <c r="W15">
+        <v>1.0</v>
+      </c>
+      <c r="X15">
+        <v>7.0</v>
+      </c>
+      <c r="Y15">
+        <v>10.0</v>
+      </c>
+      <c r="Z15">
+        <v>11.0</v>
+      </c>
+      <c r="AA15">
+        <v>5000</v>
+      </c>
+      <c r="AB15">
+        <v>3200</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>91</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16">
+        <v>900720625</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16">
+        <v>2019</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16">
+        <v>10010101</v>
+      </c>
+      <c r="S16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16">
+        <v>10.0</v>
+      </c>
+      <c r="U16">
+        <v>12.0</v>
+      </c>
+      <c r="V16">
+        <v>1.0</v>
+      </c>
+      <c r="W16">
+        <v>1.0</v>
+      </c>
+      <c r="X16">
+        <v>7.0</v>
+      </c>
+      <c r="Y16">
+        <v>10.0</v>
+      </c>
+      <c r="Z16">
+        <v>11.0</v>
+      </c>
+      <c r="AA16">
+        <v>4800</v>
+      </c>
+      <c r="AB16">
+        <v>3100</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17">
+        <v>900720625</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17">
+        <v>2019</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17">
+        <v>10010101</v>
+      </c>
+      <c r="S17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17">
+        <v>10.0</v>
+      </c>
+      <c r="U17">
+        <v>12.0</v>
+      </c>
+      <c r="V17">
+        <v>1.0</v>
+      </c>
+      <c r="W17">
+        <v>1.0</v>
+      </c>
+      <c r="X17">
+        <v>7.0</v>
+      </c>
+      <c r="Y17">
+        <v>10.0</v>
+      </c>
+      <c r="Z17">
+        <v>11.0</v>
+      </c>
+      <c r="AA17">
+        <v>4600</v>
+      </c>
+      <c r="AB17">
+        <v>3000</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>89</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18">
+        <v>900720625</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18">
+        <v>2019</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18">
+        <v>10010101</v>
+      </c>
+      <c r="S18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18">
+        <v>10.0</v>
+      </c>
+      <c r="U18">
+        <v>12.0</v>
+      </c>
+      <c r="V18">
+        <v>1.0</v>
+      </c>
+      <c r="W18">
+        <v>1.0</v>
+      </c>
+      <c r="X18">
+        <v>7.0</v>
+      </c>
+      <c r="Y18">
+        <v>10.0</v>
+      </c>
+      <c r="Z18">
+        <v>11.0</v>
+      </c>
+      <c r="AA18">
+        <v>4400</v>
+      </c>
+      <c r="AB18">
+        <v>2900</v>
+      </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19">
+        <v>900720625</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19">
+        <v>2019</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19">
+        <v>10010101</v>
+      </c>
+      <c r="S19" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19">
+        <v>10.0</v>
+      </c>
+      <c r="U19">
+        <v>12.0</v>
+      </c>
+      <c r="V19">
+        <v>1.0</v>
+      </c>
+      <c r="W19">
+        <v>1.0</v>
+      </c>
+      <c r="X19">
+        <v>7.0</v>
+      </c>
+      <c r="Y19">
+        <v>10.0</v>
+      </c>
+      <c r="Z19">
+        <v>11.0</v>
+      </c>
+      <c r="AA19">
+        <v>4200</v>
+      </c>
+      <c r="AB19">
+        <v>2800</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20">
+        <v>900720625</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20">
+        <v>2019</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20">
+        <v>10010101</v>
+      </c>
+      <c r="S20" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20">
+        <v>10.0</v>
+      </c>
+      <c r="U20">
+        <v>12.0</v>
+      </c>
+      <c r="V20">
+        <v>1.0</v>
+      </c>
+      <c r="W20">
+        <v>1.0</v>
+      </c>
+      <c r="X20">
+        <v>7.0</v>
+      </c>
+      <c r="Y20">
+        <v>10.0</v>
+      </c>
+      <c r="Z20">
+        <v>11.0</v>
+      </c>
+      <c r="AA20">
+        <v>4000</v>
+      </c>
+      <c r="AB20">
+        <v>2700</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21">
+        <v>900720625</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21">
+        <v>2019</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21">
+        <v>10010101</v>
+      </c>
+      <c r="S21" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21">
+        <v>10.0</v>
+      </c>
+      <c r="U21">
+        <v>12.0</v>
+      </c>
+      <c r="V21">
+        <v>1.0</v>
+      </c>
+      <c r="W21">
+        <v>1.0</v>
+      </c>
+      <c r="X21">
+        <v>7.0</v>
+      </c>
+      <c r="Y21">
+        <v>10.0</v>
+      </c>
+      <c r="Z21">
+        <v>11.0</v>
+      </c>
+      <c r="AA21">
+        <v>3800</v>
+      </c>
+      <c r="AB21">
+        <v>2600</v>
+      </c>
+      <c r="AC21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22">
+        <v>900720625</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22">
+        <v>2019</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22">
+        <v>10010101</v>
+      </c>
+      <c r="S22" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22">
+        <v>10.0</v>
+      </c>
+      <c r="U22">
+        <v>12.0</v>
+      </c>
+      <c r="V22">
+        <v>1.0</v>
+      </c>
+      <c r="W22">
+        <v>1.0</v>
+      </c>
+      <c r="X22">
+        <v>7.0</v>
+      </c>
+      <c r="Y22">
+        <v>10.0</v>
+      </c>
+      <c r="Z22">
+        <v>11.0</v>
+      </c>
+      <c r="AA22">
+        <v>3600</v>
+      </c>
+      <c r="AB22">
+        <v>2500</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23">
+        <v>900720625</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23">
+        <v>2019</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R23">
+        <v>10010101</v>
+      </c>
+      <c r="S23" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23">
+        <v>10.0</v>
+      </c>
+      <c r="U23">
+        <v>12.0</v>
+      </c>
+      <c r="V23">
+        <v>1.0</v>
+      </c>
+      <c r="W23">
+        <v>1.0</v>
+      </c>
+      <c r="X23">
+        <v>7.0</v>
+      </c>
+      <c r="Y23">
+        <v>10.0</v>
+      </c>
+      <c r="Z23">
+        <v>11.0</v>
+      </c>
+      <c r="AA23">
+        <v>3400</v>
+      </c>
+      <c r="AB23">
+        <v>2400</v>
+      </c>
+      <c r="AC23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24">
+        <v>900720625</v>
+      </c>
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24">
+        <v>2019</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24">
+        <v>10010101</v>
+      </c>
+      <c r="S24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24">
+        <v>10.0</v>
+      </c>
+      <c r="U24">
+        <v>12.0</v>
+      </c>
+      <c r="V24">
+        <v>1.0</v>
+      </c>
+      <c r="W24">
+        <v>1.0</v>
+      </c>
+      <c r="X24">
+        <v>7.0</v>
+      </c>
+      <c r="Y24">
+        <v>10.0</v>
+      </c>
+      <c r="Z24">
+        <v>11.0</v>
+      </c>
+      <c r="AA24">
+        <v>3200</v>
+      </c>
+      <c r="AB24">
+        <v>2300</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25">
+        <v>900720625</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25">
+        <v>2019</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25">
+        <v>10010101</v>
+      </c>
+      <c r="S25" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25">
+        <v>10.0</v>
+      </c>
+      <c r="U25">
+        <v>12.0</v>
+      </c>
+      <c r="V25">
+        <v>1.0</v>
+      </c>
+      <c r="W25">
+        <v>1.0</v>
+      </c>
+      <c r="X25">
+        <v>7.0</v>
+      </c>
+      <c r="Y25">
+        <v>10.0</v>
+      </c>
+      <c r="Z25">
+        <v>11.0</v>
+      </c>
+      <c r="AA25">
+        <v>3000</v>
+      </c>
+      <c r="AB25">
+        <v>2200</v>
+      </c>
+      <c r="AC25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26">
+        <v>900720625</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26">
+        <v>2019</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26">
+        <v>10010101</v>
+      </c>
+      <c r="S26" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26">
+        <v>10.0</v>
+      </c>
+      <c r="U26">
+        <v>12.0</v>
+      </c>
+      <c r="V26">
+        <v>1.0</v>
+      </c>
+      <c r="W26">
+        <v>1.0</v>
+      </c>
+      <c r="X26">
+        <v>7.0</v>
+      </c>
+      <c r="Y26">
+        <v>10.0</v>
+      </c>
+      <c r="Z26">
+        <v>11.0</v>
+      </c>
+      <c r="AA26">
+        <v>2800</v>
+      </c>
+      <c r="AB26">
+        <v>2100</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27">
+        <v>900720625</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27">
+        <v>2019</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27">
+        <v>10010101</v>
+      </c>
+      <c r="S27" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27">
+        <v>10.0</v>
+      </c>
+      <c r="U27">
+        <v>12.0</v>
+      </c>
+      <c r="V27">
+        <v>1.0</v>
+      </c>
+      <c r="W27">
+        <v>1.0</v>
+      </c>
+      <c r="X27">
+        <v>7.0</v>
+      </c>
+      <c r="Y27">
+        <v>10.0</v>
+      </c>
+      <c r="Z27">
+        <v>11.0</v>
+      </c>
+      <c r="AA27">
+        <v>2600</v>
+      </c>
+      <c r="AB27">
+        <v>2000</v>
+      </c>
+      <c r="AC27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28">
+        <v>900720625</v>
+      </c>
+      <c r="K28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28">
+        <v>2019</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28">
+        <v>10010101</v>
+      </c>
+      <c r="S28" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28">
+        <v>10.0</v>
+      </c>
+      <c r="U28">
+        <v>12.0</v>
+      </c>
+      <c r="V28">
+        <v>1.0</v>
+      </c>
+      <c r="W28">
+        <v>1.0</v>
+      </c>
+      <c r="X28">
+        <v>7.0</v>
+      </c>
+      <c r="Y28">
+        <v>10.0</v>
+      </c>
+      <c r="Z28">
+        <v>11.0</v>
+      </c>
+      <c r="AA28">
+        <v>2400</v>
+      </c>
+      <c r="AB28">
+        <v>1900</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29">
+        <v>900720625</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29">
+        <v>2019</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29">
+        <v>10010101</v>
+      </c>
+      <c r="S29" t="s">
+        <v>39</v>
+      </c>
+      <c r="T29">
+        <v>10.0</v>
+      </c>
+      <c r="U29">
+        <v>12.0</v>
+      </c>
+      <c r="V29">
+        <v>1.0</v>
+      </c>
+      <c r="W29">
+        <v>1.0</v>
+      </c>
+      <c r="X29">
+        <v>7.0</v>
+      </c>
+      <c r="Y29">
+        <v>10.0</v>
+      </c>
+      <c r="Z29">
+        <v>11.0</v>
+      </c>
+      <c r="AA29">
+        <v>2200</v>
+      </c>
+      <c r="AB29">
+        <v>1800</v>
+      </c>
+      <c r="AC29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>77</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30">
+        <v>900720625</v>
+      </c>
+      <c r="K30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30">
+        <v>2019</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30">
+        <v>10010101</v>
+      </c>
+      <c r="S30" t="s">
+        <v>39</v>
+      </c>
+      <c r="T30">
+        <v>10.0</v>
+      </c>
+      <c r="U30">
+        <v>12.0</v>
+      </c>
+      <c r="V30">
+        <v>1.0</v>
+      </c>
+      <c r="W30">
+        <v>1.0</v>
+      </c>
+      <c r="X30">
+        <v>7.0</v>
+      </c>
+      <c r="Y30">
+        <v>10.0</v>
+      </c>
+      <c r="Z30">
+        <v>11.0</v>
+      </c>
+      <c r="AA30">
+        <v>2000</v>
+      </c>
+      <c r="AB30">
+        <v>1700</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31">
+        <v>900720625</v>
+      </c>
+      <c r="K31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31">
+        <v>2019</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31">
+        <v>10010101</v>
+      </c>
+      <c r="S31" t="s">
+        <v>39</v>
+      </c>
+      <c r="T31">
+        <v>10.0</v>
+      </c>
+      <c r="U31">
+        <v>12.0</v>
+      </c>
+      <c r="V31">
+        <v>1.0</v>
+      </c>
+      <c r="W31">
+        <v>1.0</v>
+      </c>
+      <c r="X31">
+        <v>7.0</v>
+      </c>
+      <c r="Y31">
+        <v>10.0</v>
+      </c>
+      <c r="Z31">
+        <v>11.0</v>
+      </c>
+      <c r="AA31">
+        <v>1800</v>
+      </c>
+      <c r="AB31">
+        <v>1600</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32">
+        <v>900720625</v>
+      </c>
+      <c r="K32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32">
+        <v>2019</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32">
+        <v>10010101</v>
+      </c>
+      <c r="S32" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32">
+        <v>10.0</v>
+      </c>
+      <c r="U32">
+        <v>12.0</v>
+      </c>
+      <c r="V32">
+        <v>1.0</v>
+      </c>
+      <c r="W32">
+        <v>1.0</v>
+      </c>
+      <c r="X32">
+        <v>7.0</v>
+      </c>
+      <c r="Y32">
+        <v>10.0</v>
+      </c>
+      <c r="Z32">
+        <v>11.0</v>
+      </c>
+      <c r="AA32">
+        <v>1600</v>
+      </c>
+      <c r="AB32">
+        <v>1500</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33">
+        <v>900720625</v>
+      </c>
+      <c r="K33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33">
+        <v>2019</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33">
+        <v>10010101</v>
+      </c>
+      <c r="S33" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33">
+        <v>10.0</v>
+      </c>
+      <c r="U33">
+        <v>12.0</v>
+      </c>
+      <c r="V33">
+        <v>1.0</v>
+      </c>
+      <c r="W33">
+        <v>1.0</v>
+      </c>
+      <c r="X33">
+        <v>7.0</v>
+      </c>
+      <c r="Y33">
+        <v>10.0</v>
+      </c>
+      <c r="Z33">
+        <v>11.0</v>
+      </c>
+      <c r="AA33">
+        <v>1400</v>
+      </c>
+      <c r="AB33">
+        <v>1400</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>900720625</v>
+      </c>
+      <c r="K34" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34">
+        <v>2019</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>38</v>
+      </c>
+      <c r="R34">
+        <v>10010101</v>
+      </c>
+      <c r="S34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T34">
+        <v>10.0</v>
+      </c>
+      <c r="U34">
+        <v>12.0</v>
+      </c>
+      <c r="V34">
+        <v>1.0</v>
+      </c>
+      <c r="W34">
+        <v>1.0</v>
+      </c>
+      <c r="X34">
+        <v>7.0</v>
+      </c>
+      <c r="Y34">
+        <v>10.0</v>
+      </c>
+      <c r="Z34">
+        <v>11.0</v>
+      </c>
+      <c r="AA34">
+        <v>1200</v>
+      </c>
+      <c r="AB34">
+        <v>1300</v>
+      </c>
+      <c r="AC34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35">
+        <v>900720625</v>
+      </c>
+      <c r="K35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35">
+        <v>2019</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>38</v>
+      </c>
+      <c r="R35">
+        <v>10010101</v>
+      </c>
+      <c r="S35" t="s">
+        <v>39</v>
+      </c>
+      <c r="T35">
+        <v>10.0</v>
+      </c>
+      <c r="U35">
+        <v>12.0</v>
+      </c>
+      <c r="V35">
+        <v>1.0</v>
+      </c>
+      <c r="W35">
+        <v>1.0</v>
+      </c>
+      <c r="X35">
+        <v>7.0</v>
+      </c>
+      <c r="Y35">
+        <v>10.0</v>
+      </c>
+      <c r="Z35">
+        <v>11.0</v>
+      </c>
+      <c r="AA35">
+        <v>1000</v>
+      </c>
+      <c r="AB35">
+        <v>1200</v>
+      </c>
+      <c r="AC35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44245.208333333</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36">
+        <v>900720625</v>
+      </c>
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36">
+        <v>2019</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>38</v>
+      </c>
+      <c r="R36">
+        <v>10010101</v>
+      </c>
+      <c r="S36" t="s">
+        <v>39</v>
+      </c>
+      <c r="T36">
+        <v>8.0</v>
+      </c>
+      <c r="U36">
+        <v>12.0</v>
+      </c>
+      <c r="V36">
+        <v>1.0</v>
+      </c>
+      <c r="W36">
+        <v>1.0</v>
+      </c>
+      <c r="X36">
         <v>6.0</v>
       </c>
-      <c r="V2">
-        <v>8.0</v>
-      </c>
-      <c r="W2">
-        <v>9.0</v>
-      </c>
-      <c r="X2">
+      <c r="Y36">
+        <v>10.0</v>
+      </c>
+      <c r="Z36">
+        <v>11.0</v>
+      </c>
+      <c r="AA36">
         <v>1000</v>
       </c>
-      <c r="Y2">
+      <c r="AB36">
         <v>1200</v>
       </c>
-      <c r="Z2">
-        <v>2</v>
+      <c r="AC36">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/daily/daily-export.xlsx
+++ b/public/files/daily/daily-export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Planilla #</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Kilometros final</t>
+  </si>
+  <si>
+    <t>Total Kilometros</t>
   </si>
   <si>
     <t>Cantidad de personas</t>
@@ -484,15 +487,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AD70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,64 +583,67 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2">
         <v>900720625</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>2019</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2">
         <v>10010101</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2">
         <v>10.0</v>
@@ -667,66 +673,69 @@
         <v>4500</v>
       </c>
       <c r="AC2">
+        <v>-3100</v>
+      </c>
+      <c r="AD2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3">
         <v>900720625</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3">
         <v>2019</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3">
         <v>10010101</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3">
         <v>10.0</v>
@@ -756,66 +765,69 @@
         <v>4400</v>
       </c>
       <c r="AC3">
+        <v>-3000</v>
+      </c>
+      <c r="AD3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <v>900720625</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4">
         <v>2019</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4">
         <v>10010101</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T4">
         <v>10.0</v>
@@ -845,66 +857,69 @@
         <v>4300</v>
       </c>
       <c r="AC4">
+        <v>-2900</v>
+      </c>
+      <c r="AD4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>900720625</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5">
         <v>2019</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5">
         <v>10010101</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T5">
         <v>10.0</v>
@@ -934,66 +949,69 @@
         <v>4200</v>
       </c>
       <c r="AC5">
+        <v>-2800</v>
+      </c>
+      <c r="AD5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6">
         <v>900720625</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P6">
         <v>2019</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6">
         <v>10010101</v>
       </c>
       <c r="S6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T6">
         <v>10.0</v>
@@ -1023,66 +1041,69 @@
         <v>4100</v>
       </c>
       <c r="AC6">
+        <v>-2700</v>
+      </c>
+      <c r="AD6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7">
         <v>900720625</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7">
         <v>2019</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7">
         <v>10010101</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T7">
         <v>10.0</v>
@@ -1112,66 +1133,69 @@
         <v>4000</v>
       </c>
       <c r="AC7">
+        <v>-2600</v>
+      </c>
+      <c r="AD7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <v>900720625</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8">
         <v>2019</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8">
         <v>10010101</v>
       </c>
       <c r="S8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T8">
         <v>10.0</v>
@@ -1201,66 +1225,69 @@
         <v>3900</v>
       </c>
       <c r="AC8">
+        <v>-2500</v>
+      </c>
+      <c r="AD8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9">
         <v>900720625</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9">
         <v>2019</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9">
         <v>10010101</v>
       </c>
       <c r="S9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T9">
         <v>10.0</v>
@@ -1290,66 +1317,69 @@
         <v>3800</v>
       </c>
       <c r="AC9">
+        <v>-2400</v>
+      </c>
+      <c r="AD9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>900720625</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10">
         <v>2019</v>
       </c>
       <c r="Q10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10">
         <v>10010101</v>
       </c>
       <c r="S10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T10">
         <v>10.0</v>
@@ -1379,66 +1409,69 @@
         <v>3700</v>
       </c>
       <c r="AC10">
+        <v>-2300</v>
+      </c>
+      <c r="AD10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11">
         <v>900720625</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11">
         <v>2019</v>
       </c>
       <c r="Q11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R11">
         <v>10010101</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T11">
         <v>10.0</v>
@@ -1468,66 +1501,69 @@
         <v>3600</v>
       </c>
       <c r="AC11">
+        <v>-2200</v>
+      </c>
+      <c r="AD11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J12">
         <v>900720625</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P12">
         <v>2019</v>
       </c>
       <c r="Q12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R12">
         <v>10010101</v>
       </c>
       <c r="S12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T12">
         <v>10.0</v>
@@ -1557,66 +1593,69 @@
         <v>3500</v>
       </c>
       <c r="AC12">
+        <v>-2100</v>
+      </c>
+      <c r="AD12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J13">
         <v>900720625</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P13">
         <v>2019</v>
       </c>
       <c r="Q13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R13">
         <v>10010101</v>
       </c>
       <c r="S13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T13">
         <v>10.0</v>
@@ -1646,66 +1685,69 @@
         <v>3400</v>
       </c>
       <c r="AC13">
+        <v>-2000</v>
+      </c>
+      <c r="AD13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J14">
         <v>900720625</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14">
         <v>2019</v>
       </c>
       <c r="Q14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R14">
         <v>10010101</v>
       </c>
       <c r="S14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T14">
         <v>10.0</v>
@@ -1735,66 +1777,69 @@
         <v>3300</v>
       </c>
       <c r="AC14">
+        <v>-1900</v>
+      </c>
+      <c r="AD14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J15">
         <v>900720625</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P15">
         <v>2019</v>
       </c>
       <c r="Q15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R15">
         <v>10010101</v>
       </c>
       <c r="S15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T15">
         <v>10.0</v>
@@ -1824,66 +1869,69 @@
         <v>3200</v>
       </c>
       <c r="AC15">
+        <v>-1800</v>
+      </c>
+      <c r="AD15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C16" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J16">
         <v>900720625</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P16">
         <v>2019</v>
       </c>
       <c r="Q16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R16">
         <v>10010101</v>
       </c>
       <c r="S16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T16">
         <v>10.0</v>
@@ -1913,66 +1961,69 @@
         <v>3100</v>
       </c>
       <c r="AC16">
+        <v>-1700</v>
+      </c>
+      <c r="AD16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C17" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J17">
         <v>900720625</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P17">
         <v>2019</v>
       </c>
       <c r="Q17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R17">
         <v>10010101</v>
       </c>
       <c r="S17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T17">
         <v>10.0</v>
@@ -2002,66 +2053,69 @@
         <v>3000</v>
       </c>
       <c r="AC17">
+        <v>-1600</v>
+      </c>
+      <c r="AD17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J18">
         <v>900720625</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P18">
         <v>2019</v>
       </c>
       <c r="Q18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R18">
         <v>10010101</v>
       </c>
       <c r="S18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T18">
         <v>10.0</v>
@@ -2091,66 +2145,69 @@
         <v>2900</v>
       </c>
       <c r="AC18">
+        <v>-1500</v>
+      </c>
+      <c r="AD18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J19">
         <v>900720625</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P19">
         <v>2019</v>
       </c>
       <c r="Q19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R19">
         <v>10010101</v>
       </c>
       <c r="S19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T19">
         <v>10.0</v>
@@ -2180,66 +2237,69 @@
         <v>2800</v>
       </c>
       <c r="AC19">
+        <v>-1400</v>
+      </c>
+      <c r="AD19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C20" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J20">
         <v>900720625</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P20">
         <v>2019</v>
       </c>
       <c r="Q20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R20">
         <v>10010101</v>
       </c>
       <c r="S20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T20">
         <v>10.0</v>
@@ -2269,66 +2329,69 @@
         <v>2700</v>
       </c>
       <c r="AC20">
+        <v>-1300</v>
+      </c>
+      <c r="AD20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21">
         <v>900720625</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P21">
         <v>2019</v>
       </c>
       <c r="Q21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R21">
         <v>10010101</v>
       </c>
       <c r="S21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T21">
         <v>10.0</v>
@@ -2358,66 +2421,69 @@
         <v>2600</v>
       </c>
       <c r="AC21">
+        <v>-1200</v>
+      </c>
+      <c r="AD21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J22">
         <v>900720625</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P22">
         <v>2019</v>
       </c>
       <c r="Q22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R22">
         <v>10010101</v>
       </c>
       <c r="S22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T22">
         <v>10.0</v>
@@ -2447,66 +2513,69 @@
         <v>2500</v>
       </c>
       <c r="AC22">
+        <v>-1100</v>
+      </c>
+      <c r="AD22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C23" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J23">
         <v>900720625</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P23">
         <v>2019</v>
       </c>
       <c r="Q23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R23">
         <v>10010101</v>
       </c>
       <c r="S23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T23">
         <v>10.0</v>
@@ -2536,66 +2605,69 @@
         <v>2400</v>
       </c>
       <c r="AC23">
+        <v>-1000</v>
+      </c>
+      <c r="AD23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J24">
         <v>900720625</v>
       </c>
       <c r="K24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P24">
         <v>2019</v>
       </c>
       <c r="Q24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R24">
         <v>10010101</v>
       </c>
       <c r="S24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T24">
         <v>10.0</v>
@@ -2625,66 +2697,69 @@
         <v>2300</v>
       </c>
       <c r="AC24">
+        <v>-900</v>
+      </c>
+      <c r="AD24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C25" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>900720625</v>
       </c>
       <c r="K25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P25">
         <v>2019</v>
       </c>
       <c r="Q25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R25">
         <v>10010101</v>
       </c>
       <c r="S25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T25">
         <v>10.0</v>
@@ -2714,66 +2789,69 @@
         <v>2200</v>
       </c>
       <c r="AC25">
+        <v>-800</v>
+      </c>
+      <c r="AD25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J26">
         <v>900720625</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P26">
         <v>2019</v>
       </c>
       <c r="Q26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R26">
         <v>10010101</v>
       </c>
       <c r="S26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T26">
         <v>10.0</v>
@@ -2803,66 +2881,69 @@
         <v>2100</v>
       </c>
       <c r="AC26">
+        <v>-700</v>
+      </c>
+      <c r="AD26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J27">
         <v>900720625</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P27">
         <v>2019</v>
       </c>
       <c r="Q27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R27">
         <v>10010101</v>
       </c>
       <c r="S27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T27">
         <v>10.0</v>
@@ -2892,66 +2973,69 @@
         <v>2000</v>
       </c>
       <c r="AC27">
+        <v>-600</v>
+      </c>
+      <c r="AD27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J28">
         <v>900720625</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P28">
         <v>2019</v>
       </c>
       <c r="Q28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R28">
         <v>10010101</v>
       </c>
       <c r="S28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T28">
         <v>10.0</v>
@@ -2981,66 +3065,69 @@
         <v>1900</v>
       </c>
       <c r="AC28">
+        <v>-500</v>
+      </c>
+      <c r="AD28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J29">
         <v>900720625</v>
       </c>
       <c r="K29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P29">
         <v>2019</v>
       </c>
       <c r="Q29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R29">
         <v>10010101</v>
       </c>
       <c r="S29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T29">
         <v>10.0</v>
@@ -3070,66 +3157,69 @@
         <v>1800</v>
       </c>
       <c r="AC29">
+        <v>-400</v>
+      </c>
+      <c r="AD29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C30" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J30">
         <v>900720625</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P30">
         <v>2019</v>
       </c>
       <c r="Q30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R30">
         <v>10010101</v>
       </c>
       <c r="S30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T30">
         <v>10.0</v>
@@ -3159,66 +3249,69 @@
         <v>1700</v>
       </c>
       <c r="AC30">
+        <v>-300</v>
+      </c>
+      <c r="AD30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J31">
         <v>900720625</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P31">
         <v>2019</v>
       </c>
       <c r="Q31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R31">
         <v>10010101</v>
       </c>
       <c r="S31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T31">
         <v>10.0</v>
@@ -3248,66 +3341,69 @@
         <v>1600</v>
       </c>
       <c r="AC31">
+        <v>-200</v>
+      </c>
+      <c r="AD31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:30">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J32">
         <v>900720625</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P32">
         <v>2019</v>
       </c>
       <c r="Q32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R32">
         <v>10010101</v>
       </c>
       <c r="S32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T32">
         <v>10.0</v>
@@ -3337,66 +3433,69 @@
         <v>1500</v>
       </c>
       <c r="AC32">
+        <v>-100</v>
+      </c>
+      <c r="AD32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:30">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C33" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J33">
         <v>900720625</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P33">
         <v>2019</v>
       </c>
       <c r="Q33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R33">
         <v>10010101</v>
       </c>
       <c r="S33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T33">
         <v>10.0</v>
@@ -3426,66 +3525,69 @@
         <v>1400</v>
       </c>
       <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:30">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J34">
         <v>900720625</v>
       </c>
       <c r="K34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P34">
         <v>2019</v>
       </c>
       <c r="Q34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R34">
         <v>10010101</v>
       </c>
       <c r="S34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T34">
         <v>10.0</v>
@@ -3515,66 +3617,69 @@
         <v>1300</v>
       </c>
       <c r="AC34">
+        <v>100</v>
+      </c>
+      <c r="AD34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:30">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1">
         <v>43831.208333333</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J35">
         <v>900720625</v>
       </c>
       <c r="K35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P35">
         <v>2019</v>
       </c>
       <c r="Q35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R35">
         <v>10010101</v>
       </c>
       <c r="S35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T35">
         <v>10.0</v>
@@ -3604,69 +3709,72 @@
         <v>1200</v>
       </c>
       <c r="AC35">
+        <v>200</v>
+      </c>
+      <c r="AD35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:30">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1">
-        <v>44245.208333333</v>
+        <v>43831.208333333</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J36">
         <v>900720625</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P36">
         <v>2019</v>
       </c>
       <c r="Q36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R36">
         <v>10010101</v>
       </c>
       <c r="S36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T36">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="U36">
         <v>12.0</v>
@@ -3678,7 +3786,7 @@
         <v>1.0</v>
       </c>
       <c r="X36">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y36">
         <v>10.0</v>
@@ -3687,12 +3795,3143 @@
         <v>11.0</v>
       </c>
       <c r="AA36">
+        <v>7600</v>
+      </c>
+      <c r="AB36">
+        <v>4500</v>
+      </c>
+      <c r="AC36">
+        <v>-3100</v>
+      </c>
+      <c r="AD36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37">
+        <v>900720625</v>
+      </c>
+      <c r="K37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" t="s">
+        <v>38</v>
+      </c>
+      <c r="P37">
+        <v>2019</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37">
+        <v>10010101</v>
+      </c>
+      <c r="S37" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37">
+        <v>10.0</v>
+      </c>
+      <c r="U37">
+        <v>12.0</v>
+      </c>
+      <c r="V37">
+        <v>1.0</v>
+      </c>
+      <c r="W37">
+        <v>1.0</v>
+      </c>
+      <c r="X37">
+        <v>7.0</v>
+      </c>
+      <c r="Y37">
+        <v>10.0</v>
+      </c>
+      <c r="Z37">
+        <v>11.0</v>
+      </c>
+      <c r="AA37">
+        <v>7400</v>
+      </c>
+      <c r="AB37">
+        <v>4400</v>
+      </c>
+      <c r="AC37">
+        <v>-3000</v>
+      </c>
+      <c r="AD37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>103</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38">
+        <v>900720625</v>
+      </c>
+      <c r="K38" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38">
+        <v>2019</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38">
+        <v>10010101</v>
+      </c>
+      <c r="S38" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38">
+        <v>10.0</v>
+      </c>
+      <c r="U38">
+        <v>12.0</v>
+      </c>
+      <c r="V38">
+        <v>1.0</v>
+      </c>
+      <c r="W38">
+        <v>1.0</v>
+      </c>
+      <c r="X38">
+        <v>7.0</v>
+      </c>
+      <c r="Y38">
+        <v>10.0</v>
+      </c>
+      <c r="Z38">
+        <v>11.0</v>
+      </c>
+      <c r="AA38">
+        <v>7200</v>
+      </c>
+      <c r="AB38">
+        <v>4300</v>
+      </c>
+      <c r="AC38">
+        <v>-2900</v>
+      </c>
+      <c r="AD38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39">
+        <v>900720625</v>
+      </c>
+      <c r="K39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="s">
+        <v>37</v>
+      </c>
+      <c r="O39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39">
+        <v>2019</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>39</v>
+      </c>
+      <c r="R39">
+        <v>10010101</v>
+      </c>
+      <c r="S39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39">
+        <v>10.0</v>
+      </c>
+      <c r="U39">
+        <v>12.0</v>
+      </c>
+      <c r="V39">
+        <v>1.0</v>
+      </c>
+      <c r="W39">
+        <v>1.0</v>
+      </c>
+      <c r="X39">
+        <v>7.0</v>
+      </c>
+      <c r="Y39">
+        <v>10.0</v>
+      </c>
+      <c r="Z39">
+        <v>11.0</v>
+      </c>
+      <c r="AA39">
+        <v>7000</v>
+      </c>
+      <c r="AB39">
+        <v>4200</v>
+      </c>
+      <c r="AC39">
+        <v>-2800</v>
+      </c>
+      <c r="AD39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>101</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40">
+        <v>900720625</v>
+      </c>
+      <c r="K40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <v>2019</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R40">
+        <v>10010101</v>
+      </c>
+      <c r="S40" t="s">
+        <v>40</v>
+      </c>
+      <c r="T40">
+        <v>10.0</v>
+      </c>
+      <c r="U40">
+        <v>12.0</v>
+      </c>
+      <c r="V40">
+        <v>1.0</v>
+      </c>
+      <c r="W40">
+        <v>1.0</v>
+      </c>
+      <c r="X40">
+        <v>7.0</v>
+      </c>
+      <c r="Y40">
+        <v>10.0</v>
+      </c>
+      <c r="Z40">
+        <v>11.0</v>
+      </c>
+      <c r="AA40">
+        <v>6800</v>
+      </c>
+      <c r="AB40">
+        <v>4100</v>
+      </c>
+      <c r="AC40">
+        <v>-2700</v>
+      </c>
+      <c r="AD40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41">
+        <v>900720625</v>
+      </c>
+      <c r="K41" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41" t="s">
+        <v>38</v>
+      </c>
+      <c r="P41">
+        <v>2019</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>39</v>
+      </c>
+      <c r="R41">
+        <v>10010101</v>
+      </c>
+      <c r="S41" t="s">
+        <v>40</v>
+      </c>
+      <c r="T41">
+        <v>10.0</v>
+      </c>
+      <c r="U41">
+        <v>12.0</v>
+      </c>
+      <c r="V41">
+        <v>1.0</v>
+      </c>
+      <c r="W41">
+        <v>1.0</v>
+      </c>
+      <c r="X41">
+        <v>7.0</v>
+      </c>
+      <c r="Y41">
+        <v>10.0</v>
+      </c>
+      <c r="Z41">
+        <v>11.0</v>
+      </c>
+      <c r="AA41">
+        <v>6600</v>
+      </c>
+      <c r="AB41">
+        <v>4000</v>
+      </c>
+      <c r="AC41">
+        <v>-2600</v>
+      </c>
+      <c r="AD41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42">
+        <v>900720625</v>
+      </c>
+      <c r="K42" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" t="s">
+        <v>38</v>
+      </c>
+      <c r="P42">
+        <v>2019</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>39</v>
+      </c>
+      <c r="R42">
+        <v>10010101</v>
+      </c>
+      <c r="S42" t="s">
+        <v>40</v>
+      </c>
+      <c r="T42">
+        <v>10.0</v>
+      </c>
+      <c r="U42">
+        <v>12.0</v>
+      </c>
+      <c r="V42">
+        <v>1.0</v>
+      </c>
+      <c r="W42">
+        <v>1.0</v>
+      </c>
+      <c r="X42">
+        <v>7.0</v>
+      </c>
+      <c r="Y42">
+        <v>10.0</v>
+      </c>
+      <c r="Z42">
+        <v>11.0</v>
+      </c>
+      <c r="AA42">
+        <v>6400</v>
+      </c>
+      <c r="AB42">
+        <v>3900</v>
+      </c>
+      <c r="AC42">
+        <v>-2500</v>
+      </c>
+      <c r="AD42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>98</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43">
+        <v>900720625</v>
+      </c>
+      <c r="K43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43">
+        <v>2019</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>39</v>
+      </c>
+      <c r="R43">
+        <v>10010101</v>
+      </c>
+      <c r="S43" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43">
+        <v>10.0</v>
+      </c>
+      <c r="U43">
+        <v>12.0</v>
+      </c>
+      <c r="V43">
+        <v>1.0</v>
+      </c>
+      <c r="W43">
+        <v>1.0</v>
+      </c>
+      <c r="X43">
+        <v>7.0</v>
+      </c>
+      <c r="Y43">
+        <v>10.0</v>
+      </c>
+      <c r="Z43">
+        <v>11.0</v>
+      </c>
+      <c r="AA43">
+        <v>6200</v>
+      </c>
+      <c r="AB43">
+        <v>3800</v>
+      </c>
+      <c r="AC43">
+        <v>-2400</v>
+      </c>
+      <c r="AD43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44">
+        <v>900720625</v>
+      </c>
+      <c r="K44" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" t="s">
+        <v>36</v>
+      </c>
+      <c r="N44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P44">
+        <v>2019</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>39</v>
+      </c>
+      <c r="R44">
+        <v>10010101</v>
+      </c>
+      <c r="S44" t="s">
+        <v>40</v>
+      </c>
+      <c r="T44">
+        <v>10.0</v>
+      </c>
+      <c r="U44">
+        <v>12.0</v>
+      </c>
+      <c r="V44">
+        <v>1.0</v>
+      </c>
+      <c r="W44">
+        <v>1.0</v>
+      </c>
+      <c r="X44">
+        <v>7.0</v>
+      </c>
+      <c r="Y44">
+        <v>10.0</v>
+      </c>
+      <c r="Z44">
+        <v>11.0</v>
+      </c>
+      <c r="AA44">
+        <v>6000</v>
+      </c>
+      <c r="AB44">
+        <v>3700</v>
+      </c>
+      <c r="AC44">
+        <v>-2300</v>
+      </c>
+      <c r="AD44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45">
+        <v>900720625</v>
+      </c>
+      <c r="K45" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" t="s">
+        <v>35</v>
+      </c>
+      <c r="M45" t="s">
+        <v>36</v>
+      </c>
+      <c r="N45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45" t="s">
+        <v>38</v>
+      </c>
+      <c r="P45">
+        <v>2019</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>39</v>
+      </c>
+      <c r="R45">
+        <v>10010101</v>
+      </c>
+      <c r="S45" t="s">
+        <v>40</v>
+      </c>
+      <c r="T45">
+        <v>10.0</v>
+      </c>
+      <c r="U45">
+        <v>12.0</v>
+      </c>
+      <c r="V45">
+        <v>1.0</v>
+      </c>
+      <c r="W45">
+        <v>1.0</v>
+      </c>
+      <c r="X45">
+        <v>7.0</v>
+      </c>
+      <c r="Y45">
+        <v>10.0</v>
+      </c>
+      <c r="Z45">
+        <v>11.0</v>
+      </c>
+      <c r="AA45">
+        <v>5800</v>
+      </c>
+      <c r="AB45">
+        <v>3600</v>
+      </c>
+      <c r="AC45">
+        <v>-2200</v>
+      </c>
+      <c r="AD45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46">
+        <v>900720625</v>
+      </c>
+      <c r="K46" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" t="s">
+        <v>37</v>
+      </c>
+      <c r="O46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P46">
+        <v>2019</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>39</v>
+      </c>
+      <c r="R46">
+        <v>10010101</v>
+      </c>
+      <c r="S46" t="s">
+        <v>40</v>
+      </c>
+      <c r="T46">
+        <v>10.0</v>
+      </c>
+      <c r="U46">
+        <v>12.0</v>
+      </c>
+      <c r="V46">
+        <v>1.0</v>
+      </c>
+      <c r="W46">
+        <v>1.0</v>
+      </c>
+      <c r="X46">
+        <v>7.0</v>
+      </c>
+      <c r="Y46">
+        <v>10.0</v>
+      </c>
+      <c r="Z46">
+        <v>11.0</v>
+      </c>
+      <c r="AA46">
+        <v>5600</v>
+      </c>
+      <c r="AB46">
+        <v>3500</v>
+      </c>
+      <c r="AC46">
+        <v>-2100</v>
+      </c>
+      <c r="AD46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47">
+        <v>900720625</v>
+      </c>
+      <c r="K47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47" t="s">
+        <v>38</v>
+      </c>
+      <c r="P47">
+        <v>2019</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47">
+        <v>10010101</v>
+      </c>
+      <c r="S47" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47">
+        <v>10.0</v>
+      </c>
+      <c r="U47">
+        <v>12.0</v>
+      </c>
+      <c r="V47">
+        <v>1.0</v>
+      </c>
+      <c r="W47">
+        <v>1.0</v>
+      </c>
+      <c r="X47">
+        <v>7.0</v>
+      </c>
+      <c r="Y47">
+        <v>10.0</v>
+      </c>
+      <c r="Z47">
+        <v>11.0</v>
+      </c>
+      <c r="AA47">
+        <v>5400</v>
+      </c>
+      <c r="AB47">
+        <v>3400</v>
+      </c>
+      <c r="AC47">
+        <v>-2000</v>
+      </c>
+      <c r="AD47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>93</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48">
+        <v>900720625</v>
+      </c>
+      <c r="K48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M48" t="s">
+        <v>36</v>
+      </c>
+      <c r="N48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O48" t="s">
+        <v>38</v>
+      </c>
+      <c r="P48">
+        <v>2019</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>39</v>
+      </c>
+      <c r="R48">
+        <v>10010101</v>
+      </c>
+      <c r="S48" t="s">
+        <v>40</v>
+      </c>
+      <c r="T48">
+        <v>10.0</v>
+      </c>
+      <c r="U48">
+        <v>12.0</v>
+      </c>
+      <c r="V48">
+        <v>1.0</v>
+      </c>
+      <c r="W48">
+        <v>1.0</v>
+      </c>
+      <c r="X48">
+        <v>7.0</v>
+      </c>
+      <c r="Y48">
+        <v>10.0</v>
+      </c>
+      <c r="Z48">
+        <v>11.0</v>
+      </c>
+      <c r="AA48">
+        <v>5200</v>
+      </c>
+      <c r="AB48">
+        <v>3300</v>
+      </c>
+      <c r="AC48">
+        <v>-1900</v>
+      </c>
+      <c r="AD48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>92</v>
+      </c>
+      <c r="C49" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49">
+        <v>900720625</v>
+      </c>
+      <c r="K49" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49" t="s">
+        <v>36</v>
+      </c>
+      <c r="N49" t="s">
+        <v>37</v>
+      </c>
+      <c r="O49" t="s">
+        <v>38</v>
+      </c>
+      <c r="P49">
+        <v>2019</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>39</v>
+      </c>
+      <c r="R49">
+        <v>10010101</v>
+      </c>
+      <c r="S49" t="s">
+        <v>40</v>
+      </c>
+      <c r="T49">
+        <v>10.0</v>
+      </c>
+      <c r="U49">
+        <v>12.0</v>
+      </c>
+      <c r="V49">
+        <v>1.0</v>
+      </c>
+      <c r="W49">
+        <v>1.0</v>
+      </c>
+      <c r="X49">
+        <v>7.0</v>
+      </c>
+      <c r="Y49">
+        <v>10.0</v>
+      </c>
+      <c r="Z49">
+        <v>11.0</v>
+      </c>
+      <c r="AA49">
+        <v>5000</v>
+      </c>
+      <c r="AB49">
+        <v>3200</v>
+      </c>
+      <c r="AC49">
+        <v>-1800</v>
+      </c>
+      <c r="AD49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>91</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50">
+        <v>900720625</v>
+      </c>
+      <c r="K50" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" t="s">
+        <v>36</v>
+      </c>
+      <c r="N50" t="s">
+        <v>37</v>
+      </c>
+      <c r="O50" t="s">
+        <v>38</v>
+      </c>
+      <c r="P50">
+        <v>2019</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>39</v>
+      </c>
+      <c r="R50">
+        <v>10010101</v>
+      </c>
+      <c r="S50" t="s">
+        <v>40</v>
+      </c>
+      <c r="T50">
+        <v>10.0</v>
+      </c>
+      <c r="U50">
+        <v>12.0</v>
+      </c>
+      <c r="V50">
+        <v>1.0</v>
+      </c>
+      <c r="W50">
+        <v>1.0</v>
+      </c>
+      <c r="X50">
+        <v>7.0</v>
+      </c>
+      <c r="Y50">
+        <v>10.0</v>
+      </c>
+      <c r="Z50">
+        <v>11.0</v>
+      </c>
+      <c r="AA50">
+        <v>4800</v>
+      </c>
+      <c r="AB50">
+        <v>3100</v>
+      </c>
+      <c r="AC50">
+        <v>-1700</v>
+      </c>
+      <c r="AD50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>90</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51">
+        <v>900720625</v>
+      </c>
+      <c r="K51" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" t="s">
+        <v>36</v>
+      </c>
+      <c r="N51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51">
+        <v>2019</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>39</v>
+      </c>
+      <c r="R51">
+        <v>10010101</v>
+      </c>
+      <c r="S51" t="s">
+        <v>40</v>
+      </c>
+      <c r="T51">
+        <v>10.0</v>
+      </c>
+      <c r="U51">
+        <v>12.0</v>
+      </c>
+      <c r="V51">
+        <v>1.0</v>
+      </c>
+      <c r="W51">
+        <v>1.0</v>
+      </c>
+      <c r="X51">
+        <v>7.0</v>
+      </c>
+      <c r="Y51">
+        <v>10.0</v>
+      </c>
+      <c r="Z51">
+        <v>11.0</v>
+      </c>
+      <c r="AA51">
+        <v>4600</v>
+      </c>
+      <c r="AB51">
+        <v>3000</v>
+      </c>
+      <c r="AC51">
+        <v>-1600</v>
+      </c>
+      <c r="AD51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>89</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52">
+        <v>900720625</v>
+      </c>
+      <c r="K52" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52" t="s">
+        <v>36</v>
+      </c>
+      <c r="N52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52" t="s">
+        <v>38</v>
+      </c>
+      <c r="P52">
+        <v>2019</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>39</v>
+      </c>
+      <c r="R52">
+        <v>10010101</v>
+      </c>
+      <c r="S52" t="s">
+        <v>40</v>
+      </c>
+      <c r="T52">
+        <v>10.0</v>
+      </c>
+      <c r="U52">
+        <v>12.0</v>
+      </c>
+      <c r="V52">
+        <v>1.0</v>
+      </c>
+      <c r="W52">
+        <v>1.0</v>
+      </c>
+      <c r="X52">
+        <v>7.0</v>
+      </c>
+      <c r="Y52">
+        <v>10.0</v>
+      </c>
+      <c r="Z52">
+        <v>11.0</v>
+      </c>
+      <c r="AA52">
+        <v>4400</v>
+      </c>
+      <c r="AB52">
+        <v>2900</v>
+      </c>
+      <c r="AC52">
+        <v>-1500</v>
+      </c>
+      <c r="AD52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>88</v>
+      </c>
+      <c r="C53" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53">
+        <v>900720625</v>
+      </c>
+      <c r="K53" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53" t="s">
+        <v>36</v>
+      </c>
+      <c r="N53" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53" t="s">
+        <v>38</v>
+      </c>
+      <c r="P53">
+        <v>2019</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>39</v>
+      </c>
+      <c r="R53">
+        <v>10010101</v>
+      </c>
+      <c r="S53" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53">
+        <v>10.0</v>
+      </c>
+      <c r="U53">
+        <v>12.0</v>
+      </c>
+      <c r="V53">
+        <v>1.0</v>
+      </c>
+      <c r="W53">
+        <v>1.0</v>
+      </c>
+      <c r="X53">
+        <v>7.0</v>
+      </c>
+      <c r="Y53">
+        <v>10.0</v>
+      </c>
+      <c r="Z53">
+        <v>11.0</v>
+      </c>
+      <c r="AA53">
+        <v>4200</v>
+      </c>
+      <c r="AB53">
+        <v>2800</v>
+      </c>
+      <c r="AC53">
+        <v>-1400</v>
+      </c>
+      <c r="AD53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>87</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54">
+        <v>900720625</v>
+      </c>
+      <c r="K54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" t="s">
+        <v>36</v>
+      </c>
+      <c r="N54" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54">
+        <v>2019</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>39</v>
+      </c>
+      <c r="R54">
+        <v>10010101</v>
+      </c>
+      <c r="S54" t="s">
+        <v>40</v>
+      </c>
+      <c r="T54">
+        <v>10.0</v>
+      </c>
+      <c r="U54">
+        <v>12.0</v>
+      </c>
+      <c r="V54">
+        <v>1.0</v>
+      </c>
+      <c r="W54">
+        <v>1.0</v>
+      </c>
+      <c r="X54">
+        <v>7.0</v>
+      </c>
+      <c r="Y54">
+        <v>10.0</v>
+      </c>
+      <c r="Z54">
+        <v>11.0</v>
+      </c>
+      <c r="AA54">
+        <v>4000</v>
+      </c>
+      <c r="AB54">
+        <v>2700</v>
+      </c>
+      <c r="AC54">
+        <v>-1300</v>
+      </c>
+      <c r="AD54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>86</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55">
+        <v>900720625</v>
+      </c>
+      <c r="K55" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" t="s">
+        <v>35</v>
+      </c>
+      <c r="M55" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55" t="s">
+        <v>38</v>
+      </c>
+      <c r="P55">
+        <v>2019</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>39</v>
+      </c>
+      <c r="R55">
+        <v>10010101</v>
+      </c>
+      <c r="S55" t="s">
+        <v>40</v>
+      </c>
+      <c r="T55">
+        <v>10.0</v>
+      </c>
+      <c r="U55">
+        <v>12.0</v>
+      </c>
+      <c r="V55">
+        <v>1.0</v>
+      </c>
+      <c r="W55">
+        <v>1.0</v>
+      </c>
+      <c r="X55">
+        <v>7.0</v>
+      </c>
+      <c r="Y55">
+        <v>10.0</v>
+      </c>
+      <c r="Z55">
+        <v>11.0</v>
+      </c>
+      <c r="AA55">
+        <v>3800</v>
+      </c>
+      <c r="AB55">
+        <v>2600</v>
+      </c>
+      <c r="AC55">
+        <v>-1200</v>
+      </c>
+      <c r="AD55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>85</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56">
+        <v>900720625</v>
+      </c>
+      <c r="K56" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" t="s">
+        <v>35</v>
+      </c>
+      <c r="M56" t="s">
+        <v>36</v>
+      </c>
+      <c r="N56" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" t="s">
+        <v>38</v>
+      </c>
+      <c r="P56">
+        <v>2019</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>39</v>
+      </c>
+      <c r="R56">
+        <v>10010101</v>
+      </c>
+      <c r="S56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T56">
+        <v>10.0</v>
+      </c>
+      <c r="U56">
+        <v>12.0</v>
+      </c>
+      <c r="V56">
+        <v>1.0</v>
+      </c>
+      <c r="W56">
+        <v>1.0</v>
+      </c>
+      <c r="X56">
+        <v>7.0</v>
+      </c>
+      <c r="Y56">
+        <v>10.0</v>
+      </c>
+      <c r="Z56">
+        <v>11.0</v>
+      </c>
+      <c r="AA56">
+        <v>3600</v>
+      </c>
+      <c r="AB56">
+        <v>2500</v>
+      </c>
+      <c r="AC56">
+        <v>-1100</v>
+      </c>
+      <c r="AD56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>84</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57">
+        <v>900720625</v>
+      </c>
+      <c r="K57" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" t="s">
+        <v>36</v>
+      </c>
+      <c r="N57" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57" t="s">
+        <v>38</v>
+      </c>
+      <c r="P57">
+        <v>2019</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>39</v>
+      </c>
+      <c r="R57">
+        <v>10010101</v>
+      </c>
+      <c r="S57" t="s">
+        <v>40</v>
+      </c>
+      <c r="T57">
+        <v>10.0</v>
+      </c>
+      <c r="U57">
+        <v>12.0</v>
+      </c>
+      <c r="V57">
+        <v>1.0</v>
+      </c>
+      <c r="W57">
+        <v>1.0</v>
+      </c>
+      <c r="X57">
+        <v>7.0</v>
+      </c>
+      <c r="Y57">
+        <v>10.0</v>
+      </c>
+      <c r="Z57">
+        <v>11.0</v>
+      </c>
+      <c r="AA57">
+        <v>3400</v>
+      </c>
+      <c r="AB57">
+        <v>2400</v>
+      </c>
+      <c r="AC57">
+        <v>-1000</v>
+      </c>
+      <c r="AD57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>83</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58">
+        <v>900720625</v>
+      </c>
+      <c r="K58" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" t="s">
+        <v>35</v>
+      </c>
+      <c r="M58" t="s">
+        <v>36</v>
+      </c>
+      <c r="N58" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58" t="s">
+        <v>38</v>
+      </c>
+      <c r="P58">
+        <v>2019</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>39</v>
+      </c>
+      <c r="R58">
+        <v>10010101</v>
+      </c>
+      <c r="S58" t="s">
+        <v>40</v>
+      </c>
+      <c r="T58">
+        <v>10.0</v>
+      </c>
+      <c r="U58">
+        <v>12.0</v>
+      </c>
+      <c r="V58">
+        <v>1.0</v>
+      </c>
+      <c r="W58">
+        <v>1.0</v>
+      </c>
+      <c r="X58">
+        <v>7.0</v>
+      </c>
+      <c r="Y58">
+        <v>10.0</v>
+      </c>
+      <c r="Z58">
+        <v>11.0</v>
+      </c>
+      <c r="AA58">
+        <v>3200</v>
+      </c>
+      <c r="AB58">
+        <v>2300</v>
+      </c>
+      <c r="AC58">
+        <v>-900</v>
+      </c>
+      <c r="AD58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>82</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
+      <c r="J59">
+        <v>900720625</v>
+      </c>
+      <c r="K59" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" t="s">
+        <v>35</v>
+      </c>
+      <c r="M59" t="s">
+        <v>36</v>
+      </c>
+      <c r="N59" t="s">
+        <v>37</v>
+      </c>
+      <c r="O59" t="s">
+        <v>38</v>
+      </c>
+      <c r="P59">
+        <v>2019</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>39</v>
+      </c>
+      <c r="R59">
+        <v>10010101</v>
+      </c>
+      <c r="S59" t="s">
+        <v>40</v>
+      </c>
+      <c r="T59">
+        <v>10.0</v>
+      </c>
+      <c r="U59">
+        <v>12.0</v>
+      </c>
+      <c r="V59">
+        <v>1.0</v>
+      </c>
+      <c r="W59">
+        <v>1.0</v>
+      </c>
+      <c r="X59">
+        <v>7.0</v>
+      </c>
+      <c r="Y59">
+        <v>10.0</v>
+      </c>
+      <c r="Z59">
+        <v>11.0</v>
+      </c>
+      <c r="AA59">
+        <v>3000</v>
+      </c>
+      <c r="AB59">
+        <v>2200</v>
+      </c>
+      <c r="AC59">
+        <v>-800</v>
+      </c>
+      <c r="AD59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>81</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60">
+        <v>900720625</v>
+      </c>
+      <c r="K60" t="s">
+        <v>34</v>
+      </c>
+      <c r="L60" t="s">
+        <v>35</v>
+      </c>
+      <c r="M60" t="s">
+        <v>36</v>
+      </c>
+      <c r="N60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60" t="s">
+        <v>38</v>
+      </c>
+      <c r="P60">
+        <v>2019</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>39</v>
+      </c>
+      <c r="R60">
+        <v>10010101</v>
+      </c>
+      <c r="S60" t="s">
+        <v>40</v>
+      </c>
+      <c r="T60">
+        <v>10.0</v>
+      </c>
+      <c r="U60">
+        <v>12.0</v>
+      </c>
+      <c r="V60">
+        <v>1.0</v>
+      </c>
+      <c r="W60">
+        <v>1.0</v>
+      </c>
+      <c r="X60">
+        <v>7.0</v>
+      </c>
+      <c r="Y60">
+        <v>10.0</v>
+      </c>
+      <c r="Z60">
+        <v>11.0</v>
+      </c>
+      <c r="AA60">
+        <v>2800</v>
+      </c>
+      <c r="AB60">
+        <v>2100</v>
+      </c>
+      <c r="AC60">
+        <v>-700</v>
+      </c>
+      <c r="AD60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>80</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61">
+        <v>900720625</v>
+      </c>
+      <c r="K61" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" t="s">
+        <v>35</v>
+      </c>
+      <c r="M61" t="s">
+        <v>36</v>
+      </c>
+      <c r="N61" t="s">
+        <v>37</v>
+      </c>
+      <c r="O61" t="s">
+        <v>38</v>
+      </c>
+      <c r="P61">
+        <v>2019</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>39</v>
+      </c>
+      <c r="R61">
+        <v>10010101</v>
+      </c>
+      <c r="S61" t="s">
+        <v>40</v>
+      </c>
+      <c r="T61">
+        <v>10.0</v>
+      </c>
+      <c r="U61">
+        <v>12.0</v>
+      </c>
+      <c r="V61">
+        <v>1.0</v>
+      </c>
+      <c r="W61">
+        <v>1.0</v>
+      </c>
+      <c r="X61">
+        <v>7.0</v>
+      </c>
+      <c r="Y61">
+        <v>10.0</v>
+      </c>
+      <c r="Z61">
+        <v>11.0</v>
+      </c>
+      <c r="AA61">
+        <v>2600</v>
+      </c>
+      <c r="AB61">
+        <v>2000</v>
+      </c>
+      <c r="AC61">
+        <v>-600</v>
+      </c>
+      <c r="AD61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>79</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62">
+        <v>900720625</v>
+      </c>
+      <c r="K62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L62" t="s">
+        <v>35</v>
+      </c>
+      <c r="M62" t="s">
+        <v>36</v>
+      </c>
+      <c r="N62" t="s">
+        <v>37</v>
+      </c>
+      <c r="O62" t="s">
+        <v>38</v>
+      </c>
+      <c r="P62">
+        <v>2019</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>39</v>
+      </c>
+      <c r="R62">
+        <v>10010101</v>
+      </c>
+      <c r="S62" t="s">
+        <v>40</v>
+      </c>
+      <c r="T62">
+        <v>10.0</v>
+      </c>
+      <c r="U62">
+        <v>12.0</v>
+      </c>
+      <c r="V62">
+        <v>1.0</v>
+      </c>
+      <c r="W62">
+        <v>1.0</v>
+      </c>
+      <c r="X62">
+        <v>7.0</v>
+      </c>
+      <c r="Y62">
+        <v>10.0</v>
+      </c>
+      <c r="Z62">
+        <v>11.0</v>
+      </c>
+      <c r="AA62">
+        <v>2400</v>
+      </c>
+      <c r="AB62">
+        <v>1900</v>
+      </c>
+      <c r="AC62">
+        <v>-500</v>
+      </c>
+      <c r="AD62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>78</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63">
+        <v>900720625</v>
+      </c>
+      <c r="K63" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" t="s">
+        <v>35</v>
+      </c>
+      <c r="M63" t="s">
+        <v>36</v>
+      </c>
+      <c r="N63" t="s">
+        <v>37</v>
+      </c>
+      <c r="O63" t="s">
+        <v>38</v>
+      </c>
+      <c r="P63">
+        <v>2019</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>39</v>
+      </c>
+      <c r="R63">
+        <v>10010101</v>
+      </c>
+      <c r="S63" t="s">
+        <v>40</v>
+      </c>
+      <c r="T63">
+        <v>10.0</v>
+      </c>
+      <c r="U63">
+        <v>12.0</v>
+      </c>
+      <c r="V63">
+        <v>1.0</v>
+      </c>
+      <c r="W63">
+        <v>1.0</v>
+      </c>
+      <c r="X63">
+        <v>7.0</v>
+      </c>
+      <c r="Y63">
+        <v>10.0</v>
+      </c>
+      <c r="Z63">
+        <v>11.0</v>
+      </c>
+      <c r="AA63">
+        <v>2200</v>
+      </c>
+      <c r="AB63">
+        <v>1800</v>
+      </c>
+      <c r="AC63">
+        <v>-400</v>
+      </c>
+      <c r="AD63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>77</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" t="s">
+        <v>32</v>
+      </c>
+      <c r="J64">
+        <v>900720625</v>
+      </c>
+      <c r="K64" t="s">
+        <v>34</v>
+      </c>
+      <c r="L64" t="s">
+        <v>35</v>
+      </c>
+      <c r="M64" t="s">
+        <v>36</v>
+      </c>
+      <c r="N64" t="s">
+        <v>37</v>
+      </c>
+      <c r="O64" t="s">
+        <v>38</v>
+      </c>
+      <c r="P64">
+        <v>2019</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>39</v>
+      </c>
+      <c r="R64">
+        <v>10010101</v>
+      </c>
+      <c r="S64" t="s">
+        <v>40</v>
+      </c>
+      <c r="T64">
+        <v>10.0</v>
+      </c>
+      <c r="U64">
+        <v>12.0</v>
+      </c>
+      <c r="V64">
+        <v>1.0</v>
+      </c>
+      <c r="W64">
+        <v>1.0</v>
+      </c>
+      <c r="X64">
+        <v>7.0</v>
+      </c>
+      <c r="Y64">
+        <v>10.0</v>
+      </c>
+      <c r="Z64">
+        <v>11.0</v>
+      </c>
+      <c r="AA64">
+        <v>2000</v>
+      </c>
+      <c r="AB64">
+        <v>1700</v>
+      </c>
+      <c r="AC64">
+        <v>-300</v>
+      </c>
+      <c r="AD64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>76</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65">
+        <v>900720625</v>
+      </c>
+      <c r="K65" t="s">
+        <v>34</v>
+      </c>
+      <c r="L65" t="s">
+        <v>35</v>
+      </c>
+      <c r="M65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N65" t="s">
+        <v>37</v>
+      </c>
+      <c r="O65" t="s">
+        <v>38</v>
+      </c>
+      <c r="P65">
+        <v>2019</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>39</v>
+      </c>
+      <c r="R65">
+        <v>10010101</v>
+      </c>
+      <c r="S65" t="s">
+        <v>40</v>
+      </c>
+      <c r="T65">
+        <v>10.0</v>
+      </c>
+      <c r="U65">
+        <v>12.0</v>
+      </c>
+      <c r="V65">
+        <v>1.0</v>
+      </c>
+      <c r="W65">
+        <v>1.0</v>
+      </c>
+      <c r="X65">
+        <v>7.0</v>
+      </c>
+      <c r="Y65">
+        <v>10.0</v>
+      </c>
+      <c r="Z65">
+        <v>11.0</v>
+      </c>
+      <c r="AA65">
+        <v>1800</v>
+      </c>
+      <c r="AB65">
+        <v>1600</v>
+      </c>
+      <c r="AC65">
+        <v>-200</v>
+      </c>
+      <c r="AD65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>75</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66">
+        <v>900720625</v>
+      </c>
+      <c r="K66" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" t="s">
+        <v>35</v>
+      </c>
+      <c r="M66" t="s">
+        <v>36</v>
+      </c>
+      <c r="N66" t="s">
+        <v>37</v>
+      </c>
+      <c r="O66" t="s">
+        <v>38</v>
+      </c>
+      <c r="P66">
+        <v>2019</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>39</v>
+      </c>
+      <c r="R66">
+        <v>10010101</v>
+      </c>
+      <c r="S66" t="s">
+        <v>40</v>
+      </c>
+      <c r="T66">
+        <v>10.0</v>
+      </c>
+      <c r="U66">
+        <v>12.0</v>
+      </c>
+      <c r="V66">
+        <v>1.0</v>
+      </c>
+      <c r="W66">
+        <v>1.0</v>
+      </c>
+      <c r="X66">
+        <v>7.0</v>
+      </c>
+      <c r="Y66">
+        <v>10.0</v>
+      </c>
+      <c r="Z66">
+        <v>11.0</v>
+      </c>
+      <c r="AA66">
+        <v>1600</v>
+      </c>
+      <c r="AB66">
+        <v>1500</v>
+      </c>
+      <c r="AC66">
+        <v>-100</v>
+      </c>
+      <c r="AD66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>74</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67">
+        <v>900720625</v>
+      </c>
+      <c r="K67" t="s">
+        <v>34</v>
+      </c>
+      <c r="L67" t="s">
+        <v>35</v>
+      </c>
+      <c r="M67" t="s">
+        <v>36</v>
+      </c>
+      <c r="N67" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67" t="s">
+        <v>38</v>
+      </c>
+      <c r="P67">
+        <v>2019</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>39</v>
+      </c>
+      <c r="R67">
+        <v>10010101</v>
+      </c>
+      <c r="S67" t="s">
+        <v>40</v>
+      </c>
+      <c r="T67">
+        <v>10.0</v>
+      </c>
+      <c r="U67">
+        <v>12.0</v>
+      </c>
+      <c r="V67">
+        <v>1.0</v>
+      </c>
+      <c r="W67">
+        <v>1.0</v>
+      </c>
+      <c r="X67">
+        <v>7.0</v>
+      </c>
+      <c r="Y67">
+        <v>10.0</v>
+      </c>
+      <c r="Z67">
+        <v>11.0</v>
+      </c>
+      <c r="AA67">
+        <v>1400</v>
+      </c>
+      <c r="AB67">
+        <v>1400</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68">
+        <v>900720625</v>
+      </c>
+      <c r="K68" t="s">
+        <v>34</v>
+      </c>
+      <c r="L68" t="s">
+        <v>35</v>
+      </c>
+      <c r="M68" t="s">
+        <v>36</v>
+      </c>
+      <c r="N68" t="s">
+        <v>37</v>
+      </c>
+      <c r="O68" t="s">
+        <v>38</v>
+      </c>
+      <c r="P68">
+        <v>2019</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>39</v>
+      </c>
+      <c r="R68">
+        <v>10010101</v>
+      </c>
+      <c r="S68" t="s">
+        <v>40</v>
+      </c>
+      <c r="T68">
+        <v>10.0</v>
+      </c>
+      <c r="U68">
+        <v>12.0</v>
+      </c>
+      <c r="V68">
+        <v>1.0</v>
+      </c>
+      <c r="W68">
+        <v>1.0</v>
+      </c>
+      <c r="X68">
+        <v>7.0</v>
+      </c>
+      <c r="Y68">
+        <v>10.0</v>
+      </c>
+      <c r="Z68">
+        <v>11.0</v>
+      </c>
+      <c r="AA68">
+        <v>1200</v>
+      </c>
+      <c r="AB68">
+        <v>1300</v>
+      </c>
+      <c r="AC68">
+        <v>100</v>
+      </c>
+      <c r="AD68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>72</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43831.208333333</v>
+      </c>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69">
+        <v>900720625</v>
+      </c>
+      <c r="K69" t="s">
+        <v>34</v>
+      </c>
+      <c r="L69" t="s">
+        <v>35</v>
+      </c>
+      <c r="M69" t="s">
+        <v>36</v>
+      </c>
+      <c r="N69" t="s">
+        <v>37</v>
+      </c>
+      <c r="O69" t="s">
+        <v>38</v>
+      </c>
+      <c r="P69">
+        <v>2019</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>39</v>
+      </c>
+      <c r="R69">
+        <v>10010101</v>
+      </c>
+      <c r="S69" t="s">
+        <v>40</v>
+      </c>
+      <c r="T69">
+        <v>10.0</v>
+      </c>
+      <c r="U69">
+        <v>12.0</v>
+      </c>
+      <c r="V69">
+        <v>1.0</v>
+      </c>
+      <c r="W69">
+        <v>1.0</v>
+      </c>
+      <c r="X69">
+        <v>7.0</v>
+      </c>
+      <c r="Y69">
+        <v>10.0</v>
+      </c>
+      <c r="Z69">
+        <v>11.0</v>
+      </c>
+      <c r="AA69">
         <v>1000</v>
       </c>
-      <c r="AB36">
+      <c r="AB69">
         <v>1200</v>
       </c>
-      <c r="AC36">
+      <c r="AC69">
+        <v>200</v>
+      </c>
+      <c r="AD69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44245.208333333</v>
+      </c>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70">
+        <v>900720625</v>
+      </c>
+      <c r="K70" t="s">
+        <v>34</v>
+      </c>
+      <c r="L70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M70" t="s">
+        <v>36</v>
+      </c>
+      <c r="N70" t="s">
+        <v>37</v>
+      </c>
+      <c r="O70" t="s">
+        <v>38</v>
+      </c>
+      <c r="P70">
+        <v>2019</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>39</v>
+      </c>
+      <c r="R70">
+        <v>10010101</v>
+      </c>
+      <c r="S70" t="s">
+        <v>40</v>
+      </c>
+      <c r="T70">
+        <v>8.0</v>
+      </c>
+      <c r="U70">
+        <v>12.0</v>
+      </c>
+      <c r="V70">
+        <v>1.0</v>
+      </c>
+      <c r="W70">
+        <v>1.0</v>
+      </c>
+      <c r="X70">
+        <v>6.0</v>
+      </c>
+      <c r="Y70">
+        <v>10.0</v>
+      </c>
+      <c r="Z70">
+        <v>11.0</v>
+      </c>
+      <c r="AA70">
+        <v>1000</v>
+      </c>
+      <c r="AB70">
+        <v>1200</v>
+      </c>
+      <c r="AC70">
+        <v>200</v>
+      </c>
+      <c r="AD70">
         <v>10</v>
       </c>
     </row>
